--- a/team_specific_matrix/Purdue_B.xlsx
+++ b/team_specific_matrix/Purdue_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2186878727634195</v>
+        <v>0.2173913043478261</v>
       </c>
       <c r="C2">
-        <v>0.5129224652087475</v>
+        <v>0.5141776937618148</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01590457256461232</v>
+        <v>0.01701323251417769</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001988071570576541</v>
+        <v>0.001890359168241966</v>
       </c>
       <c r="P2">
-        <v>0.1491053677932405</v>
+        <v>0.1474480151228733</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1013916500994036</v>
+        <v>0.1020793950850662</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01858736059479554</v>
+        <v>0.0176678445229682</v>
       </c>
       <c r="C3">
-        <v>0.0483271375464684</v>
+        <v>0.04593639575971731</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01115241635687732</v>
+        <v>0.01060070671378092</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7211895910780669</v>
+        <v>0.7243816254416962</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2007434944237918</v>
+        <v>0.2014134275618374</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02439024390243903</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7073170731707317</v>
+        <v>0.7093023255813954</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2682926829268293</v>
+        <v>0.2674418604651163</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06306306306306306</v>
+        <v>0.06304347826086956</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.009009009009009009</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="E6">
-        <v>0.002252252252252252</v>
+        <v>0.002173913043478261</v>
       </c>
       <c r="F6">
-        <v>0.09234234234234234</v>
+        <v>0.09347826086956522</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2274774774774775</v>
+        <v>0.2260869565217391</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02027027027027027</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1509009009009009</v>
+        <v>0.1521739130434783</v>
       </c>
       <c r="R6">
-        <v>0.0472972972972973</v>
+        <v>0.05217391304347826</v>
       </c>
       <c r="S6">
-        <v>0.3873873873873874</v>
+        <v>0.3804347826086957</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.07862407862407862</v>
+        <v>0.08551068883610451</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02948402948402949</v>
+        <v>0.02850356294536817</v>
       </c>
       <c r="E7">
-        <v>0.002457002457002457</v>
+        <v>0.002375296912114014</v>
       </c>
       <c r="F7">
-        <v>0.09336609336609336</v>
+        <v>0.09263657957244656</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1154791154791155</v>
+        <v>0.1163895486935867</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02457002457002457</v>
+        <v>0.02375296912114014</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1842751842751843</v>
+        <v>0.1852731591448931</v>
       </c>
       <c r="R7">
-        <v>0.07862407862407862</v>
+        <v>0.08076009501187649</v>
       </c>
       <c r="S7">
-        <v>0.3931203931203931</v>
+        <v>0.3847980997624703</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.0778688524590164</v>
+        <v>0.07821782178217822</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01639344262295082</v>
+        <v>0.01782178217821782</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06147540983606557</v>
+        <v>0.06336633663366337</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09938524590163934</v>
+        <v>0.1</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02971311475409836</v>
+        <v>0.03069306930693069</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1680327868852459</v>
+        <v>0.1693069306930693</v>
       </c>
       <c r="R8">
-        <v>0.09118852459016394</v>
+        <v>0.0891089108910891</v>
       </c>
       <c r="S8">
-        <v>0.4559426229508197</v>
+        <v>0.4514851485148515</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08791208791208792</v>
+        <v>0.08823529411764706</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01758241758241758</v>
+        <v>0.01890756302521008</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06813186813186813</v>
+        <v>0.06512605042016807</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.08791208791208792</v>
+        <v>0.0861344537815126</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03736263736263736</v>
+        <v>0.03571428571428571</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1692307692307692</v>
+        <v>0.1785714285714286</v>
       </c>
       <c r="R9">
-        <v>0.09670329670329671</v>
+        <v>0.09453781512605042</v>
       </c>
       <c r="S9">
-        <v>0.4351648351648352</v>
+        <v>0.4327731092436975</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.0911880754055239</v>
+        <v>0.09217171717171717</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02016659359929855</v>
+        <v>0.01978114478114478</v>
       </c>
       <c r="E10">
-        <v>0.00131521262604121</v>
+        <v>0.001683501683501683</v>
       </c>
       <c r="F10">
-        <v>0.06444541867601929</v>
+        <v>0.06355218855218855</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1170539237176677</v>
+        <v>0.1161616161616162</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01183691363437089</v>
+        <v>0.01220538720538721</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2222709338009645</v>
+        <v>0.2213804713804714</v>
       </c>
       <c r="R10">
-        <v>0.07672073651907059</v>
+        <v>0.07786195286195287</v>
       </c>
       <c r="S10">
-        <v>0.3950021920210434</v>
+        <v>0.3952020202020202</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1234756097560976</v>
+        <v>0.1253687315634218</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0975609756097561</v>
+        <v>0.09587020648967552</v>
       </c>
       <c r="K11">
-        <v>0.1859756097560976</v>
+        <v>0.1858407079646018</v>
       </c>
       <c r="L11">
-        <v>0.5685975609756098</v>
+        <v>0.5693215339233039</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02439024390243903</v>
+        <v>0.02359882005899705</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7284263959390863</v>
+        <v>0.7248157248157249</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1776649746192893</v>
+        <v>0.1769041769041769</v>
       </c>
       <c r="K12">
-        <v>0.007614213197969543</v>
+        <v>0.007371007371007371</v>
       </c>
       <c r="L12">
-        <v>0.04060913705583756</v>
+        <v>0.03931203931203931</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04568527918781726</v>
+        <v>0.05159705159705159</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.65</v>
+        <v>0.6626506024096386</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.3</v>
+        <v>0.2891566265060241</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05</v>
+        <v>0.04819277108433735</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01805869074492099</v>
+        <v>0.01735357917570499</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1805869074492099</v>
+        <v>0.1778741865509761</v>
       </c>
       <c r="I15">
-        <v>0.07674943566591422</v>
+        <v>0.0737527114967462</v>
       </c>
       <c r="J15">
-        <v>0.2844243792325056</v>
+        <v>0.2885032537960954</v>
       </c>
       <c r="K15">
-        <v>0.07900677200902935</v>
+        <v>0.07809110629067245</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01805869074492099</v>
+        <v>0.01735357917570499</v>
       </c>
       <c r="N15">
-        <v>0.004514672686230248</v>
+        <v>0.004338394793926247</v>
       </c>
       <c r="O15">
-        <v>0.09029345372460497</v>
+        <v>0.08676789587852494</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2483069977426637</v>
+        <v>0.2559652928416486</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.0220820189274448</v>
+        <v>0.02694610778443114</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2176656151419558</v>
+        <v>0.218562874251497</v>
       </c>
       <c r="I16">
-        <v>0.0946372239747634</v>
+        <v>0.09880239520958084</v>
       </c>
       <c r="J16">
-        <v>0.3690851735015773</v>
+        <v>0.3652694610778443</v>
       </c>
       <c r="K16">
-        <v>0.1356466876971609</v>
+        <v>0.1317365269461078</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.009463722397476341</v>
+        <v>0.01197604790419162</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03785488958990536</v>
+        <v>0.03892215568862276</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1135646687697161</v>
+        <v>0.1077844311377246</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01807909604519774</v>
+        <v>0.01837837837837838</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2045197740112994</v>
+        <v>0.2010810810810811</v>
       </c>
       <c r="I17">
-        <v>0.096045197740113</v>
+        <v>0.09513513513513513</v>
       </c>
       <c r="J17">
-        <v>0.3638418079096045</v>
+        <v>0.3675675675675676</v>
       </c>
       <c r="K17">
-        <v>0.1163841807909605</v>
+        <v>0.1156756756756757</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01242937853107345</v>
+        <v>0.01297297297297297</v>
       </c>
       <c r="N17">
-        <v>0.003389830508474576</v>
+        <v>0.003243243243243243</v>
       </c>
       <c r="O17">
-        <v>0.0768361581920904</v>
+        <v>0.07567567567567568</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1084745762711864</v>
+        <v>0.1102702702702703</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0110803324099723</v>
+        <v>0.01058201058201058</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1662049861495845</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="I18">
-        <v>0.1052631578947368</v>
+        <v>0.1058201058201058</v>
       </c>
       <c r="J18">
-        <v>0.3628808864265928</v>
+        <v>0.3597883597883598</v>
       </c>
       <c r="K18">
-        <v>0.1274238227146814</v>
+        <v>0.1296296296296296</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03047091412742382</v>
+        <v>0.03174603174603174</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.08587257617728532</v>
+        <v>0.0873015873015873</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.110803324099723</v>
+        <v>0.1058201058201058</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01590380139643134</v>
+        <v>0.01532710280373832</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2273079906904577</v>
+        <v>0.2261682242990654</v>
       </c>
       <c r="I19">
-        <v>0.1035686578743212</v>
+        <v>0.1046728971962617</v>
       </c>
       <c r="J19">
-        <v>0.3483320403413499</v>
+        <v>0.3502803738317757</v>
       </c>
       <c r="K19">
-        <v>0.1171450737005431</v>
+        <v>0.1158878504672897</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01978277734678045</v>
+        <v>0.01906542056074766</v>
       </c>
       <c r="N19">
-        <v>0.0007757951900698216</v>
+        <v>0.0007476635514018691</v>
       </c>
       <c r="O19">
-        <v>0.05702094647013189</v>
+        <v>0.05719626168224299</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1101629169899147</v>
+        <v>0.1106542056074766</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Purdue_B.xlsx
+++ b/team_specific_matrix/Purdue_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2173913043478261</v>
+        <v>0.2169811320754717</v>
       </c>
       <c r="C2">
-        <v>0.5141776937618148</v>
+        <v>0.5150943396226415</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01701323251417769</v>
+        <v>0.0169811320754717</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.001890359168241966</v>
+        <v>0.001886792452830189</v>
       </c>
       <c r="P2">
-        <v>0.1474480151228733</v>
+        <v>0.1471698113207547</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1020793950850662</v>
+        <v>0.1018867924528302</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0176678445229682</v>
+        <v>0.0176056338028169</v>
       </c>
       <c r="C3">
-        <v>0.04593639575971731</v>
+        <v>0.04577464788732395</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.01060070671378092</v>
+        <v>0.01056338028169014</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7243816254416962</v>
+        <v>0.721830985915493</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2014134275618374</v>
+        <v>0.2042253521126761</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02272727272727273</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7093023255813954</v>
+        <v>0.7045454545454546</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2674418604651163</v>
+        <v>0.2727272727272727</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.06304347826086956</v>
+        <v>0.06183368869936034</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008695652173913044</v>
+        <v>0.01066098081023454</v>
       </c>
       <c r="E6">
-        <v>0.002173913043478261</v>
+        <v>0.002132196162046908</v>
       </c>
       <c r="F6">
-        <v>0.09347826086956522</v>
+        <v>0.09594882729211088</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2260869565217391</v>
+        <v>0.2238805970149254</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02173913043478261</v>
+        <v>0.02132196162046908</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1521739130434783</v>
+        <v>0.1513859275053305</v>
       </c>
       <c r="R6">
-        <v>0.05217391304347826</v>
+        <v>0.05330490405117271</v>
       </c>
       <c r="S6">
-        <v>0.3804347826086957</v>
+        <v>0.3795309168443497</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.08551068883610451</v>
+        <v>0.08490566037735849</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02850356294536817</v>
+        <v>0.02830188679245283</v>
       </c>
       <c r="E7">
-        <v>0.002375296912114014</v>
+        <v>0.002358490566037736</v>
       </c>
       <c r="F7">
-        <v>0.09263657957244656</v>
+        <v>0.09433962264150944</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1163895486935867</v>
+        <v>0.1155660377358491</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.02375296912114014</v>
+        <v>0.02358490566037736</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1852731591448931</v>
+        <v>0.1863207547169811</v>
       </c>
       <c r="R7">
-        <v>0.08076009501187649</v>
+        <v>0.08018867924528301</v>
       </c>
       <c r="S7">
-        <v>0.3847980997624703</v>
+        <v>0.3844339622641509</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07821782178217822</v>
+        <v>0.07782101167315175</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01782178217821782</v>
+        <v>0.01750972762645914</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.06336633663366337</v>
+        <v>0.0632295719844358</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1</v>
+        <v>0.1021400778210117</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.03069306930693069</v>
+        <v>0.0301556420233463</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1693069306930693</v>
+        <v>0.1692607003891051</v>
       </c>
       <c r="R8">
-        <v>0.0891089108910891</v>
+        <v>0.08754863813229571</v>
       </c>
       <c r="S8">
-        <v>0.4514851485148515</v>
+        <v>0.4523346303501946</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.08823529411764706</v>
+        <v>0.08624229979466119</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01890756302521008</v>
+        <v>0.01848049281314168</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06512605042016807</v>
+        <v>0.06365503080082136</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.0861344537815126</v>
+        <v>0.08829568788501027</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.03571428571428571</v>
+        <v>0.03490759753593429</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1785714285714286</v>
+        <v>0.1765913757700205</v>
       </c>
       <c r="R9">
-        <v>0.09453781512605042</v>
+        <v>0.09650924024640657</v>
       </c>
       <c r="S9">
-        <v>0.4327731092436975</v>
+        <v>0.4353182751540041</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.09217171717171717</v>
+        <v>0.09038382170862568</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01978114478114478</v>
+        <v>0.01981015270326042</v>
       </c>
       <c r="E10">
-        <v>0.001683501683501683</v>
+        <v>0.001650846058605035</v>
       </c>
       <c r="F10">
-        <v>0.06355218855218855</v>
+        <v>0.06397028477094512</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1161616161616162</v>
+        <v>0.116384647131655</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01220538720538721</v>
+        <v>0.01238134543953776</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2213804713804714</v>
+        <v>0.2199752373091209</v>
       </c>
       <c r="R10">
-        <v>0.07786195286195287</v>
+        <v>0.07924061081304168</v>
       </c>
       <c r="S10">
-        <v>0.3952020202020202</v>
+        <v>0.3962030540652084</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1253687315634218</v>
+        <v>0.1239067055393586</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.09587020648967552</v>
+        <v>0.09766763848396501</v>
       </c>
       <c r="K11">
-        <v>0.1858407079646018</v>
+        <v>0.1865889212827988</v>
       </c>
       <c r="L11">
-        <v>0.5693215339233039</v>
+        <v>0.5685131195335277</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02359882005899705</v>
+        <v>0.02332361516034985</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7248157248157249</v>
+        <v>0.7226277372262774</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1769041769041769</v>
+        <v>0.1800486618004866</v>
       </c>
       <c r="K12">
-        <v>0.007371007371007371</v>
+        <v>0.0072992700729927</v>
       </c>
       <c r="L12">
-        <v>0.03931203931203931</v>
+        <v>0.0389294403892944</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05159705159705159</v>
+        <v>0.05109489051094891</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6626506024096386</v>
+        <v>0.6588235294117647</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2891566265060241</v>
+        <v>0.2941176470588235</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04819277108433735</v>
+        <v>0.04705882352941176</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01735357917570499</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1778741865509761</v>
+        <v>0.1773504273504274</v>
       </c>
       <c r="I15">
-        <v>0.0737527114967462</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="J15">
-        <v>0.2885032537960954</v>
+        <v>0.2948717948717949</v>
       </c>
       <c r="K15">
-        <v>0.07809110629067245</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01735357917570499</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="N15">
-        <v>0.004338394793926247</v>
+        <v>0.004273504273504274</v>
       </c>
       <c r="O15">
-        <v>0.08676789587852494</v>
+        <v>0.08547008547008547</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2559652928416486</v>
+        <v>0.2542735042735043</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.02694610778443114</v>
+        <v>0.02686567164179104</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.218562874251497</v>
+        <v>0.217910447761194</v>
       </c>
       <c r="I16">
-        <v>0.09880239520958084</v>
+        <v>0.09850746268656717</v>
       </c>
       <c r="J16">
-        <v>0.3652694610778443</v>
+        <v>0.3671641791044776</v>
       </c>
       <c r="K16">
-        <v>0.1317365269461078</v>
+        <v>0.1313432835820895</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01197604790419162</v>
+        <v>0.01194029850746269</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03892215568862276</v>
+        <v>0.03880597014925373</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1077844311377246</v>
+        <v>0.1074626865671642</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01837837837837838</v>
+        <v>0.01812366737739872</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.2010810810810811</v>
+        <v>0.2025586353944563</v>
       </c>
       <c r="I17">
-        <v>0.09513513513513513</v>
+        <v>0.09488272921108742</v>
       </c>
       <c r="J17">
-        <v>0.3675675675675676</v>
+        <v>0.3678038379530917</v>
       </c>
       <c r="K17">
-        <v>0.1156756756756757</v>
+        <v>0.1140724946695096</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01297297297297297</v>
+        <v>0.0138592750533049</v>
       </c>
       <c r="N17">
-        <v>0.003243243243243243</v>
+        <v>0.003198294243070362</v>
       </c>
       <c r="O17">
-        <v>0.07567567567567568</v>
+        <v>0.07462686567164178</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1102702702702703</v>
+        <v>0.1108742004264392</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01058201058201058</v>
+        <v>0.01030927835051546</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1693121693121693</v>
+        <v>0.1701030927835052</v>
       </c>
       <c r="I18">
-        <v>0.1058201058201058</v>
+        <v>0.1108247422680412</v>
       </c>
       <c r="J18">
-        <v>0.3597883597883598</v>
+        <v>0.3530927835051547</v>
       </c>
       <c r="K18">
-        <v>0.1296296296296296</v>
+        <v>0.1262886597938144</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.03174603174603174</v>
+        <v>0.03092783505154639</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.0873015873015873</v>
+        <v>0.09020618556701031</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1058201058201058</v>
+        <v>0.1082474226804124</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01532710280373832</v>
+        <v>0.01505692251193537</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2261682242990654</v>
+        <v>0.2262210796915167</v>
       </c>
       <c r="I19">
-        <v>0.1046728971962617</v>
+        <v>0.1053984575835476</v>
       </c>
       <c r="J19">
-        <v>0.3502803738317757</v>
+        <v>0.3507161219243481</v>
       </c>
       <c r="K19">
-        <v>0.1158878504672897</v>
+        <v>0.1160484759456482</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01906542056074766</v>
+        <v>0.01909658464928388</v>
       </c>
       <c r="N19">
-        <v>0.0007476635514018691</v>
+        <v>0.0007344840249724568</v>
       </c>
       <c r="O19">
-        <v>0.05719626168224299</v>
+        <v>0.05728975394785164</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1106542056074766</v>
+        <v>0.1094381197208961</v>
       </c>
     </row>
   </sheetData>
